--- a/Quanlybanhang/dtb xe/dtb.xlsx
+++ b/Quanlybanhang/dtb xe/dtb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiet\Downloads\Quanlybanhang-20250918T165001Z-1-001\Quanlybanhang\dtb xe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quanlybanhang2\dtb xe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E023F8-E0D0-4167-8D20-80570897B2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13B7B61-3AFF-453F-A4EA-82CA79629101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t>23.000.000</t>
   </si>
   <si>
-    <t>Trắng, Đen</t>
-  </si>
-  <si>
     <t>GT50</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>ORIS</t>
+  </si>
+  <si>
+    <t>White, Black, Red</t>
   </si>
 </sst>
 </file>
@@ -523,14 +523,14 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -577,10 +577,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>35</v>
@@ -603,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>36</v>
@@ -629,10 +629,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>37</v>
@@ -655,10 +655,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>38</v>
@@ -681,10 +681,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>39</v>
@@ -707,10 +707,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>40</v>
@@ -733,10 +733,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>41</v>
@@ -759,10 +759,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>42</v>
@@ -785,10 +785,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>43</v>
@@ -809,5 +809,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>